--- a/Lighting_AboveGround.xlsx
+++ b/Lighting_AboveGround.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/07e742dfb959fcc6/SLD/קבצים לדמו/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{2A778370-125E-40D4-90AF-ECAF46F5B2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3AB5C05E-AB43-4A55-A47C-DCD11D10587D}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{2A778370-125E-40D4-90AF-ECAF46F5B2D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8954430D-0CF2-4EB4-86D0-5482D2B145D7}"/>
   <bookViews>
     <workbookView xWindow="-19310" yWindow="-100" windowWidth="19420" windowHeight="10300" xr2:uid="{268A2A23-D46F-48F1-8BDC-A9DFAD520E27}"/>
   </bookViews>
@@ -1965,6 +1965,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2282,19 +2286,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEA14FFB-D9FA-4A09-9371-C8984B003CA4}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I734"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A322" workbookViewId="0">
+      <selection activeCell="J329" sqref="J329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.296875" customWidth="1"/>
+    <col min="4" max="4" width="14.296875" customWidth="1"/>
     <col min="5" max="5" width="7.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.19921875" bestFit="1" customWidth="1"/>
@@ -2447,7 +2450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -2476,7 +2479,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -3056,7 +3059,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -3085,7 +3088,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -3114,7 +3117,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>58</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -3172,7 +3175,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -3288,7 +3291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3346,7 +3349,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -3404,7 +3407,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3433,7 +3436,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -3462,7 +3465,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>74</v>
       </c>
@@ -3491,7 +3494,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>76</v>
       </c>
@@ -3520,7 +3523,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>76</v>
       </c>
@@ -3549,7 +3552,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>80</v>
       </c>
@@ -3578,7 +3581,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -3607,7 +3610,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>82</v>
       </c>
@@ -3897,7 +3900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -3926,7 +3929,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -4013,7 +4016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>90</v>
       </c>
@@ -4042,7 +4045,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>90</v>
       </c>
@@ -4071,7 +4074,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>91</v>
       </c>
@@ -4100,7 +4103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>91</v>
       </c>
@@ -4129,7 +4132,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>91</v>
       </c>
@@ -4158,7 +4161,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>91</v>
       </c>
@@ -4187,7 +4190,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>92</v>
       </c>
@@ -4274,7 +4277,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>98</v>
       </c>
@@ -4303,7 +4306,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>98</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>100</v>
       </c>
@@ -4390,7 +4393,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>100</v>
       </c>
@@ -4477,7 +4480,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>103</v>
       </c>
@@ -4506,7 +4509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -4535,7 +4538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>104</v>
       </c>
@@ -5086,7 +5089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>116</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>120</v>
       </c>
@@ -5260,7 +5263,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>120</v>
       </c>
@@ -5289,7 +5292,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -5521,7 +5524,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>133</v>
       </c>
@@ -5550,7 +5553,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>133</v>
       </c>
@@ -5579,7 +5582,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>133</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>133</v>
       </c>
@@ -5666,7 +5669,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>141</v>
       </c>
@@ -5695,7 +5698,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>144</v>
       </c>
@@ -5724,7 +5727,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>144</v>
       </c>
@@ -5753,7 +5756,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>144</v>
       </c>
@@ -5782,7 +5785,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>144</v>
       </c>
@@ -5811,7 +5814,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>144</v>
       </c>
@@ -5840,7 +5843,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>144</v>
       </c>
@@ -5869,7 +5872,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>144</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>153</v>
       </c>
@@ -6043,7 +6046,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>158</v>
       </c>
@@ -6072,7 +6075,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>158</v>
       </c>
@@ -6246,7 +6249,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>162</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>162</v>
       </c>
@@ -6304,7 +6307,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>162</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>162</v>
       </c>
@@ -6362,7 +6365,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>162</v>
       </c>
@@ -6391,7 +6394,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>162</v>
       </c>
@@ -6478,7 +6481,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>164</v>
       </c>
@@ -6507,7 +6510,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>164</v>
       </c>
@@ -6594,7 +6597,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>166</v>
       </c>
@@ -6652,7 +6655,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>169</v>
       </c>
@@ -6739,7 +6742,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>171</v>
       </c>
@@ -6768,7 +6771,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>172</v>
       </c>
@@ -6797,7 +6800,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>173</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>173</v>
       </c>
@@ -6884,7 +6887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>177</v>
       </c>
@@ -6913,7 +6916,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>177</v>
       </c>
@@ -6942,7 +6945,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>178</v>
       </c>
@@ -6971,7 +6974,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>178</v>
       </c>
@@ -7058,7 +7061,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>180</v>
       </c>
@@ -7087,7 +7090,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>180</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>181</v>
       </c>
@@ -7145,7 +7148,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -7261,7 +7264,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>185</v>
       </c>
@@ -7290,7 +7293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>185</v>
       </c>
@@ -7348,7 +7351,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>187</v>
       </c>
@@ -7609,7 +7612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>193</v>
       </c>
@@ -7638,7 +7641,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>193</v>
       </c>
@@ -7667,7 +7670,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>193</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>195</v>
       </c>
@@ -7841,7 +7844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>195</v>
       </c>
@@ -7870,7 +7873,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -7899,7 +7902,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -7928,7 +7931,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>196</v>
       </c>
@@ -7957,7 +7960,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>196</v>
       </c>
@@ -7986,7 +7989,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>196</v>
       </c>
@@ -8015,7 +8018,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -8102,7 +8105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>202</v>
       </c>
@@ -8160,7 +8163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>204</v>
       </c>
@@ -8189,7 +8192,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>204</v>
       </c>
@@ -8218,7 +8221,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>204</v>
       </c>
@@ -8247,7 +8250,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -8276,7 +8279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>204</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>204</v>
       </c>
@@ -8450,7 +8453,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>206</v>
       </c>
@@ -8479,7 +8482,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>206</v>
       </c>
@@ -8508,7 +8511,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>207</v>
       </c>
@@ -8537,7 +8540,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>207</v>
       </c>
@@ -8566,7 +8569,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>207</v>
       </c>
@@ -8595,7 +8598,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>207</v>
       </c>
@@ -8624,7 +8627,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>207</v>
       </c>
@@ -8653,7 +8656,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>207</v>
       </c>
@@ -8682,7 +8685,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>207</v>
       </c>
@@ -8711,7 +8714,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>207</v>
       </c>
@@ -8740,7 +8743,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>207</v>
       </c>
@@ -8769,7 +8772,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>209</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>209</v>
       </c>
@@ -8827,7 +8830,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>210</v>
       </c>
@@ -8856,7 +8859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>210</v>
       </c>
@@ -8885,7 +8888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>210</v>
       </c>
@@ -9088,7 +9091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>214</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>218</v>
       </c>
@@ -9378,7 +9381,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>218</v>
       </c>
@@ -9407,7 +9410,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>218</v>
       </c>
@@ -9436,7 +9439,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>219</v>
       </c>
@@ -9465,7 +9468,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>219</v>
       </c>
@@ -9494,7 +9497,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>219</v>
       </c>
@@ -9523,7 +9526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>219</v>
       </c>
@@ -9552,7 +9555,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>219</v>
       </c>
@@ -9581,7 +9584,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>219</v>
       </c>
@@ -9610,7 +9613,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>219</v>
       </c>
@@ -9639,7 +9642,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>219</v>
       </c>
@@ -9668,7 +9671,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>219</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>220</v>
       </c>
@@ -9726,7 +9729,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>220</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>221</v>
       </c>
@@ -9784,7 +9787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>221</v>
       </c>
@@ -9813,7 +9816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>221</v>
       </c>
@@ -9958,7 +9961,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>224</v>
       </c>
@@ -9987,7 +9990,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>224</v>
       </c>
@@ -10016,7 +10019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>224</v>
       </c>
@@ -10480,7 +10483,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>234</v>
       </c>
@@ -10509,7 +10512,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>236</v>
       </c>
@@ -10538,7 +10541,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>236</v>
       </c>
@@ -10712,7 +10715,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>240</v>
       </c>
@@ -10741,7 +10744,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>240</v>
       </c>
@@ -10770,7 +10773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>240</v>
       </c>
@@ -10799,7 +10802,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>240</v>
       </c>
@@ -10828,7 +10831,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>241</v>
       </c>
@@ -10857,7 +10860,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>242</v>
       </c>
@@ -10944,7 +10947,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>246</v>
       </c>
@@ -10973,7 +10976,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>246</v>
       </c>
@@ -11002,7 +11005,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>246</v>
       </c>
@@ -11031,7 +11034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>246</v>
       </c>
@@ -11060,7 +11063,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>246</v>
       </c>
@@ -11147,7 +11150,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>248</v>
       </c>
@@ -11176,7 +11179,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>248</v>
       </c>
@@ -11205,7 +11208,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>248</v>
       </c>
@@ -11263,7 +11266,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>250</v>
       </c>
@@ -11292,7 +11295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>252</v>
       </c>
@@ -11321,7 +11324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>252</v>
       </c>
@@ -11350,7 +11353,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>253</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>253</v>
       </c>
@@ -11408,7 +11411,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>253</v>
       </c>
@@ -11437,7 +11440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>253</v>
       </c>
@@ -11466,7 +11469,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>253</v>
       </c>
@@ -11495,7 +11498,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>253</v>
       </c>
@@ -11524,7 +11527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>253</v>
       </c>
@@ -11727,7 +11730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>257</v>
       </c>
@@ -11756,7 +11759,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>258</v>
       </c>
@@ -11918,7 +11921,7 @@
         <v>7</v>
       </c>
       <c r="F332" s="1">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="G332" t="s">
         <v>264</v>
@@ -11947,7 +11950,7 @@
         <v>2</v>
       </c>
       <c r="F333" s="1">
-        <v>45799</v>
+        <v>45802</v>
       </c>
       <c r="G333" t="s">
         <v>264</v>
@@ -11959,7 +11962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>267</v>
       </c>
@@ -11988,7 +11991,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>267</v>
       </c>
@@ -12017,7 +12020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>267</v>
       </c>
@@ -12046,7 +12049,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>267</v>
       </c>
@@ -12075,7 +12078,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>267</v>
       </c>
@@ -12104,7 +12107,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>267</v>
       </c>
@@ -12133,7 +12136,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>267</v>
       </c>
@@ -12278,7 +12281,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>271</v>
       </c>
@@ -12307,7 +12310,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>271</v>
       </c>
@@ -12626,7 +12629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>275</v>
       </c>
@@ -12655,7 +12658,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>275</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>276</v>
       </c>
@@ -12713,7 +12716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>276</v>
       </c>
@@ -12742,7 +12745,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>277</v>
       </c>
@@ -12771,7 +12774,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>277</v>
       </c>
@@ -12800,7 +12803,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>277</v>
       </c>
@@ -12887,7 +12890,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>279</v>
       </c>
@@ -12916,7 +12919,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>279</v>
       </c>
@@ -12945,7 +12948,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>279</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>280</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>280</v>
       </c>
@@ -13032,7 +13035,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="371" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>281</v>
       </c>
@@ -13061,7 +13064,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>282</v>
       </c>
@@ -13090,7 +13093,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>282</v>
       </c>
@@ -13293,7 +13296,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>284</v>
       </c>
@@ -13322,7 +13325,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>284</v>
       </c>
@@ -13351,7 +13354,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>284</v>
       </c>
@@ -13670,7 +13673,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="393" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>287</v>
       </c>
@@ -13699,7 +13702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>287</v>
       </c>
@@ -13931,7 +13934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>291</v>
       </c>
@@ -13960,7 +13963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>291</v>
       </c>
@@ -13989,7 +13992,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>291</v>
       </c>
@@ -14018,7 +14021,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>292</v>
       </c>
@@ -14047,7 +14050,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>293</v>
       </c>
@@ -14076,7 +14079,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>293</v>
       </c>
@@ -14105,7 +14108,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>293</v>
       </c>
@@ -14134,7 +14137,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>294</v>
       </c>
@@ -14163,7 +14166,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>295</v>
       </c>
@@ -14192,7 +14195,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>296</v>
       </c>
@@ -14221,7 +14224,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>296</v>
       </c>
@@ -14308,7 +14311,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>299</v>
       </c>
@@ -14337,7 +14340,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>299</v>
       </c>
@@ -14366,7 +14369,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>299</v>
       </c>
@@ -14395,7 +14398,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>299</v>
       </c>
@@ -14424,7 +14427,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>299</v>
       </c>
@@ -14685,7 +14688,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>303</v>
       </c>
@@ -14714,7 +14717,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>303</v>
       </c>
@@ -14743,7 +14746,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>306</v>
       </c>
@@ -14772,7 +14775,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>306</v>
       </c>
@@ -14801,7 +14804,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>306</v>
       </c>
@@ -14830,7 +14833,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>307</v>
       </c>
@@ -14859,7 +14862,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>307</v>
       </c>
@@ -14888,7 +14891,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>307</v>
       </c>
@@ -14917,7 +14920,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>308</v>
       </c>
@@ -14946,7 +14949,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>309</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>309</v>
       </c>
@@ -15004,7 +15007,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>310</v>
       </c>
@@ -15033,7 +15036,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>310</v>
       </c>
@@ -15062,7 +15065,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>310</v>
       </c>
@@ -15149,7 +15152,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="444" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>312</v>
       </c>
@@ -15265,7 +15268,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="448" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>316</v>
       </c>
@@ -15294,7 +15297,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>317</v>
       </c>
@@ -15323,7 +15326,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>318</v>
       </c>
@@ -15497,7 +15500,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>320</v>
       </c>
@@ -15584,7 +15587,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>322</v>
       </c>
@@ -15613,7 +15616,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>322</v>
       </c>
@@ -15671,7 +15674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>324</v>
       </c>
@@ -15700,7 +15703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>325</v>
       </c>
@@ -15932,7 +15935,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="471" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>330</v>
       </c>
@@ -15961,7 +15964,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="472" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>330</v>
       </c>
@@ -15990,7 +15993,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="473" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>330</v>
       </c>
@@ -16019,7 +16022,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="474" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>331</v>
       </c>
@@ -16048,7 +16051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="475" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>331</v>
       </c>
@@ -16077,7 +16080,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="476" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>333</v>
       </c>
@@ -16106,7 +16109,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="477" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>333</v>
       </c>
@@ -16483,7 +16486,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="490" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>336</v>
       </c>
@@ -16512,7 +16515,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="491" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>336</v>
       </c>
@@ -16541,7 +16544,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="492" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>336</v>
       </c>
@@ -16570,7 +16573,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="493" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>337</v>
       </c>
@@ -16599,7 +16602,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="494" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>337</v>
       </c>
@@ -16628,7 +16631,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="495" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>337</v>
       </c>
@@ -16744,7 +16747,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="499" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>341</v>
       </c>
@@ -16773,7 +16776,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="500" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>341</v>
       </c>
@@ -16802,7 +16805,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="501" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>341</v>
       </c>
@@ -16831,7 +16834,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="502" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>341</v>
       </c>
@@ -16860,7 +16863,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="503" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>342</v>
       </c>
@@ -16976,7 +16979,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="507" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>344</v>
       </c>
@@ -17063,7 +17066,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="510" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>346</v>
       </c>
@@ -17092,7 +17095,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="511" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>346</v>
       </c>
@@ -17121,7 +17124,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="512" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>346</v>
       </c>
@@ -17150,7 +17153,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="513" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>346</v>
       </c>
@@ -17179,7 +17182,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="514" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>346</v>
       </c>
@@ -17208,7 +17211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="515" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>346</v>
       </c>
@@ -17237,7 +17240,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="516" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>347</v>
       </c>
@@ -17266,7 +17269,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="517" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>347</v>
       </c>
@@ -17295,7 +17298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="518" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>347</v>
       </c>
@@ -17324,7 +17327,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="519" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>348</v>
       </c>
@@ -17643,7 +17646,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="530" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>350</v>
       </c>
@@ -17672,7 +17675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="531" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>350</v>
       </c>
@@ -17701,7 +17704,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="532" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>351</v>
       </c>
@@ -17730,7 +17733,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="533" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>351</v>
       </c>
@@ -17759,7 +17762,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="534" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>351</v>
       </c>
@@ -17875,7 +17878,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="538" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>353</v>
       </c>
@@ -17904,7 +17907,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="539" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>353</v>
       </c>
@@ -17933,7 +17936,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="540" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>353</v>
       </c>
@@ -18049,7 +18052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="544" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>355</v>
       </c>
@@ -18078,7 +18081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="545" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>356</v>
       </c>
@@ -18107,7 +18110,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="546" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>356</v>
       </c>
@@ -18136,7 +18139,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="547" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>356</v>
       </c>
@@ -18194,7 +18197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="549" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>358</v>
       </c>
@@ -18281,7 +18284,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="552" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>360</v>
       </c>
@@ -18310,7 +18313,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="553" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>361</v>
       </c>
@@ -18513,7 +18516,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="560" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>364</v>
       </c>
@@ -18542,7 +18545,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="561" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>364</v>
       </c>
@@ -18571,7 +18574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="562" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>364</v>
       </c>
@@ -18600,7 +18603,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="563" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>364</v>
       </c>
@@ -18629,7 +18632,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="564" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>364</v>
       </c>
@@ -18658,7 +18661,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="565" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>364</v>
       </c>
@@ -18687,7 +18690,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="566" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>364</v>
       </c>
@@ -18745,7 +18748,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="568" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>366</v>
       </c>
@@ -18774,7 +18777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="569" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>366</v>
       </c>
@@ -18803,7 +18806,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="570" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>366</v>
       </c>
@@ -18919,7 +18922,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="574" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>368</v>
       </c>
@@ -18948,7 +18951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="575" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>369</v>
       </c>
@@ -18977,7 +18980,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="576" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>369</v>
       </c>
@@ -19006,7 +19009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="577" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>370</v>
       </c>
@@ -19035,7 +19038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="578" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>370</v>
       </c>
@@ -19064,7 +19067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="579" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>370</v>
       </c>
@@ -19093,7 +19096,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="580" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>370</v>
       </c>
@@ -19122,7 +19125,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="581" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>371</v>
       </c>
@@ -19151,7 +19154,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="582" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>371</v>
       </c>
@@ -19267,7 +19270,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="586" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>374</v>
       </c>
@@ -19296,7 +19299,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="587" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>375</v>
       </c>
@@ -19325,7 +19328,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="588" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>375</v>
       </c>
@@ -19354,7 +19357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="589" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>378</v>
       </c>
@@ -19412,7 +19415,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="591" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>380</v>
       </c>
@@ -19441,7 +19444,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="592" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>380</v>
       </c>
@@ -19470,7 +19473,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="593" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>381</v>
       </c>
@@ -19499,7 +19502,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="594" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>381</v>
       </c>
@@ -19615,7 +19618,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="598" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>385</v>
       </c>
@@ -19644,7 +19647,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="599" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>386</v>
       </c>
@@ -19702,7 +19705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>389</v>
       </c>
@@ -19731,7 +19734,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="602" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>389</v>
       </c>
@@ -19760,7 +19763,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="603" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>390</v>
       </c>
@@ -19789,7 +19792,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="604" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>390</v>
       </c>
@@ -19847,7 +19850,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="606" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>392</v>
       </c>
@@ -19876,7 +19879,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="607" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>393</v>
       </c>
@@ -19905,7 +19908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="608" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>393</v>
       </c>
@@ -19934,7 +19937,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="609" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>393</v>
       </c>
@@ -19963,7 +19966,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="610" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>394</v>
       </c>
@@ -20050,7 +20053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="613" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>396</v>
       </c>
@@ -20079,7 +20082,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="614" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>396</v>
       </c>
@@ -20369,7 +20372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="624" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>402</v>
       </c>
@@ -20398,7 +20401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="625" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>402</v>
       </c>
@@ -20427,7 +20430,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="626" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>402</v>
       </c>
@@ -20485,7 +20488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="628" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>404</v>
       </c>
@@ -20514,7 +20517,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="629" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>404</v>
       </c>
@@ -20543,7 +20546,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="630" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>405</v>
       </c>
@@ -20572,7 +20575,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="631" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>405</v>
       </c>
@@ -20659,7 +20662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="634" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>408</v>
       </c>
@@ -20717,7 +20720,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="636" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>410</v>
       </c>
@@ -20833,7 +20836,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="640" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>412</v>
       </c>
@@ -20862,7 +20865,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="641" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>412</v>
       </c>
@@ -20891,7 +20894,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="642" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>413</v>
       </c>
@@ -20920,7 +20923,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="643" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>413</v>
       </c>
@@ -20949,7 +20952,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="644" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>414</v>
       </c>
@@ -20978,7 +20981,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="645" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>414</v>
       </c>
@@ -21007,7 +21010,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="646" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>415</v>
       </c>
@@ -21036,7 +21039,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="647" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>415</v>
       </c>
@@ -21065,7 +21068,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="648" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>415</v>
       </c>
@@ -21094,7 +21097,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="649" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>416</v>
       </c>
@@ -21152,7 +21155,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="651" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>418</v>
       </c>
@@ -21181,7 +21184,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="652" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>419</v>
       </c>
@@ -21210,7 +21213,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="653" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>419</v>
       </c>
@@ -21239,7 +21242,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="654" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>420</v>
       </c>
@@ -21297,7 +21300,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="656" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>422</v>
       </c>
@@ -21326,7 +21329,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>422</v>
       </c>
@@ -21355,7 +21358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>423</v>
       </c>
@@ -21384,7 +21387,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>424</v>
       </c>
@@ -21413,7 +21416,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>424</v>
       </c>
@@ -21761,7 +21764,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>428</v>
       </c>
@@ -21790,7 +21793,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>428</v>
       </c>
@@ -21906,7 +21909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="677" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>430</v>
       </c>
@@ -21935,7 +21938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="678" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>430</v>
       </c>
@@ -21964,7 +21967,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="679" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>431</v>
       </c>
@@ -22051,7 +22054,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="682" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>433</v>
       </c>
@@ -22080,7 +22083,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="683" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>433</v>
       </c>
@@ -22109,7 +22112,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="684" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>434</v>
       </c>
@@ -22225,7 +22228,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="688" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>437</v>
       </c>
@@ -22254,7 +22257,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="689" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>437</v>
       </c>
@@ -22341,7 +22344,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="692" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>439</v>
       </c>
@@ -22370,7 +22373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="693" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>439</v>
       </c>
@@ -22399,7 +22402,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="694" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>440</v>
       </c>
@@ -22428,7 +22431,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="695" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>440</v>
       </c>
@@ -22457,7 +22460,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="696" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>440</v>
       </c>
@@ -22486,7 +22489,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="697" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>440</v>
       </c>
@@ -22515,7 +22518,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="698" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>440</v>
       </c>
@@ -22544,7 +22547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="699" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>440</v>
       </c>
@@ -22573,7 +22576,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="700" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>440</v>
       </c>
@@ -23037,7 +23040,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="716" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>446</v>
       </c>
@@ -23066,7 +23069,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="717" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>446</v>
       </c>
@@ -23095,7 +23098,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="718" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>447</v>
       </c>
@@ -23124,7 +23127,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="719" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>447</v>
       </c>
@@ -23443,7 +23446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="730" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>459</v>
       </c>
@@ -23530,7 +23533,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="733" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>464</v>
       </c>
@@ -23589,13 +23592,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I734" xr:uid="{BEA14FFB-D9FA-4A09-9371-C8984B003CA4}">
-    <filterColumn colId="8">
-      <filters>
-        <filter val="כן"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>